--- a/input_list.xlsx
+++ b/input_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cflowers\Documents\git_connections\simple_b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE7459B7-AE12-4042-847F-A952BD8DFAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8210E1-DB24-4675-AD56-05582CC7A539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D423B097-5F39-42A5-B06D-475934C55EAB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>category</t>
   </si>
@@ -68,6 +68,24 @@
   </si>
   <si>
     <t>crossfit</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>pay off bvba</t>
+  </si>
+  <si>
+    <t>pay off nysca</t>
+  </si>
+  <si>
+    <t>black Friday</t>
+  </si>
+  <si>
+    <t>mcu cc</t>
+  </si>
+  <si>
+    <t>apple</t>
   </si>
 </sst>
 </file>
@@ -420,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D78AE2-FFEE-4F4B-9B3E-CC34555C1339}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,6 +520,40 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44454</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44454</v>
+      </c>
+      <c r="E6">
+        <v>150</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -509,13 +561,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06B07E0E-9E09-409F-B7B4-F934467D4566}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -531,6 +586,48 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44439</v>
+      </c>
+      <c r="D2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44439</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44515</v>
+      </c>
+      <c r="D4">
+        <v>700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
